--- a/BBDD Kaagle/MACA-Neighbourhoods Brazil.xlsx
+++ b/BBDD Kaagle/MACA-Neighbourhoods Brazil.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\MASTER IA\TFM_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC5C0DB-9313-4B8F-9B77-CE5B4F05D861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D6683-BED2-44B1-896C-D87CBB4CF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="2070" windowWidth="19050" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
   <si>
     <t>AEROPORTO</t>
   </si>
@@ -268,17 +272,119 @@
     <t>Neighbourhood</t>
   </si>
   <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
+    <t>HealthCentre</t>
+  </si>
+  <si>
+    <t>LongitudeNeighbourhood</t>
+  </si>
+  <si>
+    <t>LatitudeNeighbourhood</t>
+  </si>
+  <si>
+    <t>LatitudeHealthCentre</t>
+  </si>
+  <si>
+    <t>LongitudeHealthCentre</t>
+  </si>
+  <si>
+    <t>NameHealthCentre</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Andorinhas - Dr. Luis Claudio Passos</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Bonfim (Thomaz Tommassi)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Alagoano - Ariovaldo Favalessa</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Centro (Geny Grijó)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde São Pedro V – Conquista/Nova Palestina – Maria Leda Santos</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - da Penha - Dr. Gilson Santos</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - do Quadro - Avelina Maria Lacerda Gonçalves</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Praia do Suá (Lucilo Borges Sant’anna)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Fonte Grande (Dr. Affonso Schwab)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Forte São João (Dr. Bolivar de Abreu)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Grande Vitória</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Consolação - Maria Rangel dos Passos</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Ilha de Santa Maria</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Ilha do Principe (Dr. Manoel Rocha Coutinho)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Itararé - Dilson dos Santos Loureiro</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Jabour (Dr. Carlito Von Shilgen)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Jardim Camburi (Raul Oliveira Nunes)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Jardim da Penha (Otaviano Rodrigues de Carvalho)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Jesus de Nazaré (Dr. Luiz Castellar da Silva)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Maria Ortiz</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Maruípe</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - República (Dr. Jolindo Martins)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Resistência</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Santa Luíza (Dr. José Moyses)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Santa Martha - Benedito Gomes da Silva</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Santo Antônio (Júlio Cézar Prates Mattos)</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Santo André</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - Ilha das Caieiras - Vereador Nenel Miranda</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde - São Cristovão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade de Saúde </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +399,24 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,17 +426,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -327,15 +464,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,921 +785,1504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="E1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-20.258099999999999</v>
+      </c>
+      <c r="C2" s="3">
         <v>-40.2864</v>
       </c>
-      <c r="C2">
-        <v>-20.258099999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-20.287963999999999</v>
+      </c>
+      <c r="C3" s="4">
         <v>-40.305671799999999</v>
       </c>
-      <c r="C3" s="1">
-        <v>-20.287963999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-20.290607600000001</v>
+      </c>
+      <c r="F3">
+        <v>-40.306925100000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
+        <v>-20.263120700000002</v>
+      </c>
+      <c r="C4" s="4">
         <v>-40.2980132</v>
       </c>
-      <c r="C4" s="1">
-        <v>-20.263120700000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
+        <v>-20.3146828</v>
+      </c>
+      <c r="C5" s="4">
         <v>-40.356384900000002</v>
       </c>
-      <c r="C5" s="1">
-        <v>-20.3146828</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
+        <v>-20.294977899999999</v>
+      </c>
+      <c r="C6" s="3">
         <v>-40.2980132</v>
       </c>
-      <c r="C6">
-        <v>-20.294977899999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
+        <v>-20.303721800000002</v>
+      </c>
+      <c r="C7" s="3">
         <v>-40.348413999999998</v>
       </c>
-      <c r="C7">
-        <v>-20.303721800000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
+        <v>-20.3199048</v>
+      </c>
+      <c r="C8" s="3">
         <v>-40.307586299999997</v>
       </c>
-      <c r="C8">
-        <v>-20.3199048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
+        <v>-20.271345499999999</v>
+      </c>
+      <c r="C9" s="3">
         <v>-40.299289700000003</v>
       </c>
-      <c r="C9">
-        <v>-20.271345499999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
+        <v>-20.3005529</v>
+      </c>
+      <c r="C10" s="3">
         <v>-40.313329400000001</v>
       </c>
-      <c r="C10">
-        <v>-20.3005529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-20.298940399999999</v>
+      </c>
+      <c r="F10">
+        <v>-40.3150488</v>
+      </c>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
+        <v>-20.3153468</v>
+      </c>
+      <c r="C11" s="3">
         <v>-40.352877800000002</v>
       </c>
-      <c r="C11">
-        <v>-20.3153468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-20.3155575138099</v>
+      </c>
+      <c r="F11">
+        <v>-40.352728668302099</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
+        <v>-20.321946799999999</v>
+      </c>
+      <c r="C12" s="3">
         <v>-40.3356584</v>
       </c>
-      <c r="C12">
-        <v>-20.321946799999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-20.319937580287299</v>
+      </c>
+      <c r="F12" s="9">
+        <v>-40.340484503918297</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
+        <v>-20.287213699999999</v>
+      </c>
+      <c r="C13" s="3">
         <v>-40.335020499999999</v>
       </c>
-      <c r="C13">
-        <v>-20.287213699999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
+        <v>-20.278134399999999</v>
+      </c>
+      <c r="C14" s="3">
         <v>-40.323537999999999</v>
       </c>
-      <c r="C14">
-        <v>-20.278134399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-20.276006472949099</v>
+      </c>
+      <c r="F14">
+        <v>-40.324896159742103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
+        <v>-20.306242399999999</v>
+      </c>
+      <c r="C15" s="3">
         <v>-40.312691299999997</v>
       </c>
-      <c r="C15">
-        <v>-20.306242399999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
+        <v>-20.310337000000001</v>
+      </c>
+      <c r="C16" s="3">
         <v>-40.322262000000002</v>
       </c>
-      <c r="C16">
-        <v>-20.310337000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
+        <v>-20.297581999999998</v>
+      </c>
+      <c r="C17" s="3">
         <v>-40.310777000000002</v>
       </c>
-      <c r="C17">
-        <v>-20.297581999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>-20.297860799999999</v>
+      </c>
+      <c r="F17">
+        <v>-40.311661399999998</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
+        <v>-20.307199000000001</v>
+      </c>
+      <c r="C18" s="3">
         <v>-40.315881699999998</v>
       </c>
-      <c r="C18">
-        <v>-20.307199000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
+        <v>-20.315533200000001</v>
+      </c>
+      <c r="C19" s="3">
         <v>-40.3477763</v>
       </c>
-      <c r="C19">
-        <v>-20.315533200000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
+        <v>-20.314930700000001</v>
+      </c>
+      <c r="C20" s="3">
         <v>-40.343312099999999</v>
       </c>
-      <c r="C20">
-        <v>-20.314930700000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
+        <v>-20.317059199999999</v>
+      </c>
+      <c r="C21" s="3">
         <v>-40.350008299999999</v>
       </c>
-      <c r="C21">
-        <v>-20.317059199999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>-20.316251699999999</v>
+      </c>
+      <c r="F21">
+        <v>-40.349231699999997</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
+        <v>-20.319401500000001</v>
+      </c>
+      <c r="C22" s="3">
         <v>-40.296098399999998</v>
       </c>
-      <c r="C22">
-        <v>-20.319401500000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>-20.314989436049601</v>
+      </c>
+      <c r="F22" s="7">
+        <v>-40.298515868302097</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
+        <v>-20.293488</v>
+      </c>
+      <c r="C23" s="3">
         <v>-40.3477763</v>
       </c>
-      <c r="C23">
-        <v>-20.293488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
+        <v>-20.313455699999999</v>
+      </c>
+      <c r="C24" s="3">
         <v>-40.3375719</v>
       </c>
-      <c r="C24">
-        <v>-20.313455699999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>-20.316423914800701</v>
+      </c>
+      <c r="F24" s="9">
+        <v>-40.336842117411898</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
+        <v>-20.320574000000001</v>
+      </c>
+      <c r="C25" s="3">
         <v>-40.322899999999997</v>
       </c>
-      <c r="C25">
-        <v>-20.320574000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>-20.3182105171133</v>
+      </c>
+      <c r="F25" s="8">
+        <v>-40.322537328439701</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
+        <v>-20.306913099999999</v>
+      </c>
+      <c r="C26" s="3">
         <v>-40.328003699999996</v>
       </c>
-      <c r="C26">
-        <v>-20.306913099999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
+        <v>-20.272473300000001</v>
+      </c>
+      <c r="C27" s="3">
         <v>-40.306310000000003</v>
       </c>
-      <c r="C27">
-        <v>-20.272473300000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
+        <v>-20.288690200000001</v>
+      </c>
+      <c r="C28" s="3">
         <v>-40.340761000000001</v>
       </c>
-      <c r="C28">
-        <v>-20.288690200000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>-20.2901524220356</v>
+      </c>
+      <c r="F28" s="8">
+        <v>-40.343918714560402</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
+        <v>-20.305906199999999</v>
+      </c>
+      <c r="C29" s="3">
         <v>-40.305033600000002</v>
       </c>
-      <c r="C29">
-        <v>-20.305906199999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>-20.3032535</v>
+      </c>
+      <c r="F29">
+        <v>-40.304391600000002</v>
+      </c>
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
+        <v>-20.3096158</v>
+      </c>
+      <c r="C30" s="3">
         <v>-40.310457900000003</v>
       </c>
-      <c r="C30">
-        <v>-20.3096158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
+        <v>-20.277415099999999</v>
+      </c>
+      <c r="C31" s="3">
         <v>-40.335020499999999</v>
       </c>
-      <c r="C31">
-        <v>-20.277415099999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
+        <v>-20.317084099999999</v>
+      </c>
+      <c r="C32" s="3">
         <v>-40.3177959</v>
       </c>
-      <c r="C32">
-        <v>-20.317084099999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>-20.312805900000001</v>
+      </c>
+      <c r="F32">
+        <v>-40.318600099999998</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>-29.323296200000001</v>
-      </c>
-      <c r="C33">
-        <v>-20.507148999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="3">
+        <v>-20.308248855480802</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-40.279775860347399</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
+        <v>-20.302764100000001</v>
+      </c>
+      <c r="C34" s="3">
         <v>-40.284496300000001</v>
       </c>
-      <c r="C34">
-        <v>-20.302764100000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
+        <v>-20.322612100000001</v>
+      </c>
+      <c r="C35" s="3">
         <v>-40.3509648</v>
       </c>
-      <c r="C35">
-        <v>-20.322612100000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>-20.3219919</v>
+      </c>
+      <c r="F35">
+        <v>-40.349517599999999</v>
+      </c>
+      <c r="G35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>-40.295776799999999</v>
-      </c>
-      <c r="C36">
-        <v>-20.297617800000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="3">
+        <v>-23.350691674089401</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-44.723649572215002</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>-23.350972773385799</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-44.7227949950313</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
+        <v>-20.299527999999999</v>
+      </c>
+      <c r="C37" s="3">
         <v>-40.345863100000003</v>
       </c>
-      <c r="C37">
-        <v>-20.299527999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
+        <v>-20.2953996</v>
+      </c>
+      <c r="C38" s="3">
         <v>-40.307586299999997</v>
       </c>
-      <c r="C38">
-        <v>-20.2953996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>-20.295051399999998</v>
+      </c>
+      <c r="F38">
+        <v>-40.3085618</v>
+      </c>
+      <c r="G38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
+        <v>-20.2584011</v>
+      </c>
+      <c r="C39" s="3">
         <v>-40.292906899999998</v>
       </c>
-      <c r="C39">
-        <v>-20.2584011</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>-20.2595265494441</v>
+      </c>
+      <c r="F39">
+        <v>-40.295224919261997</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
+        <v>-20.259218700000002</v>
+      </c>
+      <c r="C40" s="3">
         <v>-40.265453100000002</v>
       </c>
-      <c r="C40">
-        <v>-20.259218700000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>-20.2553813</v>
+      </c>
+      <c r="F40">
+        <v>-40.269485699999997</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
+        <v>-20.285090700000001</v>
+      </c>
+      <c r="C41" s="3">
         <v>-40.296098399999998</v>
       </c>
-      <c r="C41">
-        <v>-20.285090700000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>-20.2851517</v>
+      </c>
+      <c r="F41">
+        <v>-40.297687099999997</v>
+      </c>
+      <c r="G41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
+        <v>-20.318864300000001</v>
+      </c>
+      <c r="C42" s="3">
         <v>-40.302480799999998</v>
       </c>
-      <c r="C42">
-        <v>-20.318864300000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <v>-20.319607668244402</v>
+      </c>
+      <c r="F42" s="8">
+        <v>-40.304138449075801</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
+        <v>-20.2843585</v>
+      </c>
+      <c r="C43" s="3">
         <v>-40.316519800000002</v>
       </c>
-      <c r="C43">
-        <v>-20.2843585</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
+        <v>-20.3085919</v>
+      </c>
+      <c r="C44" s="3">
         <v>-40.319710000000001</v>
       </c>
-      <c r="C44">
-        <v>-20.3085919</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
+        <v>-20.258305</v>
+      </c>
+      <c r="C45" s="3">
         <v>-40.2999279</v>
       </c>
-      <c r="C45">
-        <v>-20.258305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>-20.257007393049399</v>
+      </c>
+      <c r="F45">
+        <v>-40.298273150924103</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
+        <v>-20.296341000000002</v>
+      </c>
+      <c r="C46" s="3">
         <v>-40.319710000000001</v>
       </c>
-      <c r="C46">
-        <v>-20.296341000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>-20.296205199999999</v>
+      </c>
+      <c r="F46">
+        <v>-40.316428500000001</v>
+      </c>
+      <c r="G46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
+        <v>-20.275118500000001</v>
+      </c>
+      <c r="C47" s="3">
         <v>-40.2922686</v>
       </c>
-      <c r="C47">
-        <v>-20.275118500000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
+        <v>-20.315255100000002</v>
+      </c>
+      <c r="C48" s="3">
         <v>-40.313329400000001</v>
       </c>
-      <c r="C48">
-        <v>-20.315255100000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
+        <v>-20.272049200000001</v>
+      </c>
+      <c r="C49" s="3">
         <v>-40.296736699999997</v>
       </c>
-      <c r="C49">
-        <v>-20.272049200000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
+        <v>-20.319539899999999</v>
+      </c>
+      <c r="C50" s="3">
         <v>-40.355428400000001</v>
       </c>
-      <c r="C50">
-        <v>-20.319539899999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
+        <v>-20.310480099999999</v>
+      </c>
+      <c r="C51" s="3">
         <v>-40.316200700000003</v>
       </c>
-      <c r="C51">
-        <v>-20.310480099999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
+        <v>-20.272614999999998</v>
+      </c>
+      <c r="C52" s="3">
         <v>-40.328003699999996</v>
       </c>
-      <c r="C52">
-        <v>-20.272614999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
+        <v>-20.259172</v>
+      </c>
+      <c r="C53" s="3">
         <v>-40.239684599999997</v>
       </c>
-      <c r="C53">
-        <v>-20.259172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
+        <v>-20.320618799999998</v>
+      </c>
+      <c r="C54" s="3">
         <v>-40.342674299999999</v>
       </c>
-      <c r="C54">
-        <v>-20.320618799999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
+        <v>-20.314193199999998</v>
+      </c>
+      <c r="C55" s="3">
         <v>-40.340442099999997</v>
       </c>
-      <c r="C55">
-        <v>-20.314193199999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
+        <v>-20.290076599999999</v>
+      </c>
+      <c r="C56" s="3">
         <v>-40.2980132</v>
       </c>
-      <c r="C56">
-        <v>-20.290076599999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
+        <v>-20.299626100000001</v>
+      </c>
+      <c r="C57" s="3">
         <v>-40.2922686</v>
       </c>
-      <c r="C57">
-        <v>-20.299626100000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
+        <v>-20.3130059</v>
+      </c>
+      <c r="C58" s="3">
         <v>-40.299289700000003</v>
       </c>
-      <c r="C58">
-        <v>-20.3130059</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
+        <v>-20.279175800000001</v>
+      </c>
+      <c r="C59" s="3">
         <v>-40.328641599999997</v>
       </c>
-      <c r="C59">
-        <v>-20.279175800000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
+        <v>-20.270654</v>
+      </c>
+      <c r="C60" s="3">
         <v>-40.292906899999998</v>
       </c>
-      <c r="C60">
-        <v>-20.270654</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>-20.272444</v>
+      </c>
+      <c r="F60">
+        <v>-40.292112099999997</v>
+      </c>
+      <c r="G60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
+        <v>-20.2729812</v>
+      </c>
+      <c r="C61" s="3">
         <v>-40.3177959</v>
       </c>
-      <c r="C61">
-        <v>-20.2729812</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>-20.2711389</v>
+      </c>
+      <c r="F61">
+        <v>-40.317461199999997</v>
+      </c>
+      <c r="G61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
+        <v>-20.312518300000001</v>
+      </c>
+      <c r="C62" s="3">
         <v>-40.325451899999997</v>
       </c>
-      <c r="C62">
-        <v>-20.312518300000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
+        <v>-20.3041278</v>
+      </c>
+      <c r="C63" s="3">
         <v>-40.320348000000003</v>
       </c>
-      <c r="C63">
-        <v>-20.3041278</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
+        <v>-20.318688399999999</v>
+      </c>
+      <c r="C64" s="3">
         <v>-40.345225399999997</v>
       </c>
-      <c r="C64">
-        <v>-20.318688399999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
+        <v>-20.309513800000001</v>
+      </c>
+      <c r="C65" s="3">
         <v>-40.294183500000003</v>
       </c>
-      <c r="C65">
-        <v>-20.309513800000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
+        <v>-20.291470799999999</v>
+      </c>
+      <c r="C66" s="3">
         <v>-40.301842600000001</v>
       </c>
-      <c r="C66">
-        <v>-20.291470799999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>-20.292656074241201</v>
+      </c>
+      <c r="F66">
+        <v>-40.300031103918997</v>
+      </c>
+      <c r="G66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
+        <v>-20.302414200000001</v>
+      </c>
+      <c r="C67" s="3">
         <v>-40.2999279</v>
       </c>
-      <c r="C67">
-        <v>-20.302414200000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
+        <v>-20.2873442</v>
+      </c>
+      <c r="C68" s="3">
         <v>-40.310138799999997</v>
       </c>
-      <c r="C68">
-        <v>-20.2873442</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8">
+        <v>-20.286384741071402</v>
+      </c>
+      <c r="F68" s="8">
+        <v>-40.310367905767599</v>
+      </c>
+      <c r="G68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
+        <v>-20.3110702</v>
+      </c>
+      <c r="C69" s="3">
         <v>-40.348413999999998</v>
       </c>
-      <c r="C69">
-        <v>-20.3110702</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>-20.3081852</v>
+      </c>
+      <c r="F69">
+        <v>-40.351492299999997</v>
+      </c>
+      <c r="G69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
+        <v>-20.279344300000002</v>
+      </c>
+      <c r="C70" s="3">
         <v>-40.332469000000003</v>
       </c>
-      <c r="C70">
-        <v>-20.279344300000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>-20.277917200000001</v>
+      </c>
+      <c r="F70">
+        <v>-40.332252400000002</v>
+      </c>
+      <c r="G70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
+        <v>-20.3096593</v>
+      </c>
+      <c r="C71" s="3">
         <v>-40.3535155</v>
       </c>
-      <c r="C71">
-        <v>-20.3096593</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
+        <v>-20.301946099999999</v>
+      </c>
+      <c r="C72" s="3">
         <v>-40.317157799999997</v>
       </c>
-      <c r="C72">
-        <v>-20.301946099999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
+        <v>-20.283891400000002</v>
+      </c>
+      <c r="C73" s="3">
         <v>-40.333744799999998</v>
       </c>
-      <c r="C73">
-        <v>-20.283891400000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
+        <v>-20.263254</v>
+      </c>
+      <c r="C74" s="3">
         <v>-40.296417499999997</v>
       </c>
-      <c r="C74">
-        <v>-20.263254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
+        <v>-20.261373599999999</v>
+      </c>
+      <c r="C75" s="3">
         <v>-40.2954601</v>
       </c>
-      <c r="C75">
-        <v>-20.261373599999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
+        <v>-20.301089300000001</v>
+      </c>
+      <c r="C76" s="3">
         <v>-40.3069481</v>
       </c>
-      <c r="C76">
-        <v>-20.301089300000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
+        <v>-20.292849799999999</v>
+      </c>
+      <c r="C77" s="3">
         <v>-40.3146056</v>
       </c>
-      <c r="C77">
-        <v>-20.292849799999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
+        <v>-20.284159500000001</v>
+      </c>
+      <c r="C78" s="3">
         <v>-40.330555400000001</v>
       </c>
-      <c r="C78">
-        <v>-20.284159500000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
+        <v>-20.281962100000001</v>
+      </c>
+      <c r="C79" s="3">
         <v>-40.3362962</v>
       </c>
-      <c r="C79">
-        <v>-20.281962100000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>-20.280093099999998</v>
+      </c>
+      <c r="F79">
+        <v>-40.337114300000003</v>
+      </c>
+      <c r="G79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
+        <v>-20.294411400000001</v>
+      </c>
+      <c r="C80" s="3">
         <v>-40.322262000000002</v>
       </c>
-      <c r="C80">
-        <v>-20.294411400000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>-20.292430400000001</v>
+      </c>
+      <c r="F80">
+        <v>-40.321463799999997</v>
+      </c>
+      <c r="G80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
+        <v>-20.2956027</v>
+      </c>
+      <c r="C81" s="3">
         <v>-40.340123200000001</v>
       </c>
-      <c r="C81">
-        <v>-20.2956027</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
+        <v>-20.319778400000001</v>
+      </c>
+      <c r="C82" s="3">
         <v>-40.346819699999998</v>
       </c>
-      <c r="C82">
-        <v>-20.319778400000001</v>
+      <c r="D82" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C59253-012B-454A-88B9-AEC8811546F9}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-20.2801014</v>
+      </c>
+      <c r="B29">
+        <v>-40.3372174</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-20.2924367</v>
+      </c>
+      <c r="B30">
+        <v>-40.3221907</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>